--- a/mead.xlsx
+++ b/mead.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wannes/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wannes/mead/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FB936B04-4B96-DE4C-9762-B80D09DB1A4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF990BB3-061F-C246-BEA5-F968E0C5709E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12900" yWindow="960" windowWidth="15520" windowHeight="16180" xr2:uid="{1BD417BC-EE07-2D44-8A4F-6BA385C35BD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Book2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Date &amp; Time</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>M1</t>
   </si>
@@ -58,6 +55,12 @@
   </si>
   <si>
     <t>Frequency</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -93,9 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -168,7 +173,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Book2!$H$1</c:f>
+              <c:f>Book2!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -204,59 +209,104 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>Book2!$A$2:$A$15</c:f>
-              <c:numCache>
-                <c:formatCode>m/d/yy\ h:mm</c:formatCode>
+            <c:multiLvlStrRef>
+              <c:f>Book2!$A$2:$B$15</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>44160.416666666664</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>44160.701388888891</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>44162.416666608799</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>44163.416666608799</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>44164.416666608799</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>44165.416666608799</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>44166.416666608799</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>44167.416666608799</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>44168.416666608799</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44169.416666608799</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>44170.416666608799</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>44171.416666608799</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>44172.416666608799</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>44173.416666608799</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>10:00</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>16:50</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>17:50</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>18:50</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>19:50</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>20:50</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>21:50</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>22:50</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>23:50</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>00:50</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>01:50</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>02:50</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>03:50</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>04:50</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>25/11/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>26/11/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>27/11/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>28/11/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>29/11/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>30/11/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>01/12/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>02/12/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>03/12/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>04/12/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>05/12/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>06/12/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>07/12/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>08/12/2020</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Book2!$H$2:$H$15</c:f>
+              <c:f>Book2!$I$2:$I$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -308,7 +358,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-33BA-F548-9296-527501E0F10E}"/>
+              <c16:uniqueId val="{00000000-414E-E748-9D32-28856FCC7656}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -320,11 +370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="736620976"/>
-        <c:axId val="736542352"/>
+        <c:axId val="791485232"/>
+        <c:axId val="794202784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="736620976"/>
+        <c:axId val="791485232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -344,7 +394,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yy\ h:mm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -381,12 +430,12 @@
             <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="736542352"/>
+        <c:crossAx val="794202784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="736542352"/>
+        <c:axId val="794202784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,7 +492,7 @@
             <a:endParaRPr lang="en-BE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="736620976"/>
+        <c:crossAx val="791485232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1052,17 +1101,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{869F637E-8D15-E44A-9505-1712C4FA6EBE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{705ED1BF-49F4-DE4E-B2A8-4F33F05823E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1380,7 +1429,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5C49733-9BDF-7749-B179-F1A7350EB728}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
@@ -1389,254 +1438,303 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>44160.416666666664</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C2">
         <v>12.39</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>11.85</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>12.49</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>12.88</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>11.25</v>
       </c>
-      <c r="G2">
-        <f>AVERAGE(B2:F2)</f>
+      <c r="H2">
+        <f>AVERAGE(C2:G2)</f>
         <v>12.172000000000001</v>
       </c>
-      <c r="H2">
-        <f>60/G2</f>
+      <c r="I2">
+        <f>60/H2</f>
         <v>4.9293460400920139</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>44160.701388888891</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.70138888888888884</v>
+      </c>
+      <c r="C3">
         <v>10.63</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>10.28</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>10.96</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>10.5</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10.88</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G14" si="0">AVERAGE(B3:F3)</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H14" si="0">AVERAGE(C3:G3)</f>
         <v>10.650000000000002</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H14" si="1">60/G3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I14" si="1">60/H3</f>
         <v>5.6338028169014072</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>44162.416666608799</v>
-      </c>
-      <c r="G4" t="e">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0.74305555555555503</v>
+      </c>
+      <c r="H4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" t="e">
+      <c r="I4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>44163.416666608799</v>
-      </c>
-      <c r="G5" t="e">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>44163</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.78472222222222199</v>
+      </c>
+      <c r="H5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" t="e">
+      <c r="I5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>44164.416666608799</v>
-      </c>
-      <c r="G6" t="e">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>44164</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.82638888888888895</v>
+      </c>
+      <c r="H6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" t="e">
+      <c r="I6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>44165.416666608799</v>
-      </c>
-      <c r="G7" t="e">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0.86805555555555503</v>
+      </c>
+      <c r="H7" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" t="e">
+      <c r="I7" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>44166.416666608799</v>
-      </c>
-      <c r="G8" t="e">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.90972222222222199</v>
+      </c>
+      <c r="H8" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" t="e">
+      <c r="I8" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44167.416666608799</v>
-      </c>
-      <c r="G9" t="e">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.95138888888888895</v>
+      </c>
+      <c r="H9" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" t="e">
+      <c r="I9" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>44168.416666608799</v>
-      </c>
-      <c r="G10" t="e">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.99305555555555602</v>
+      </c>
+      <c r="H10" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" t="e">
+      <c r="I10" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>44169.416666608799</v>
-      </c>
-      <c r="G11" t="e">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1.0347222222222201</v>
+      </c>
+      <c r="H11" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" t="e">
+      <c r="I11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>44170.416666608799</v>
-      </c>
-      <c r="G12" t="e">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>44170</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.0763888888888899</v>
+      </c>
+      <c r="H12" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" t="e">
+      <c r="I12" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>44171.416666608799</v>
-      </c>
-      <c r="G13" t="e">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>44171</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1.11805555555556</v>
+      </c>
+      <c r="H13" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" t="e">
+      <c r="I13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>44172.416666608799</v>
-      </c>
-      <c r="G14" t="e">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1.1597222222222201</v>
+      </c>
+      <c r="H14" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" t="e">
+      <c r="I14" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>44173.416666608799</v>
-      </c>
-      <c r="G15" t="e">
-        <f>AVERAGE(B15:F15)</f>
-        <v>#DIV/0!</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.2013888888888899</v>
       </c>
       <c r="H15" t="e">
-        <f>60/G15</f>
+        <f>AVERAGE(C15:G15)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I15" t="e">
+        <f>60/H15</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
